--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C0428BA-82E2-4702-87B7-7FD2823C53A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AE42B1-BAC4-4CAB-B9F0-306D11524869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8655" yWindow="2160" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="96">
   <si>
     <t>Rider</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>Træsneset</t>
+  </si>
+  <si>
+    <t>Hammarsland</t>
+  </si>
+  <si>
+    <t>Ebbesvik</t>
   </si>
 </sst>
 </file>
@@ -1116,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9237F8-759A-1046-9CA0-16FCEE066690}">
-  <dimension ref="A1:M932"/>
+  <dimension ref="A1:M895"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1164,7 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Knappskog</v>
+        <v>Blomøy</v>
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">INDEX($I$19:$L$19,RANDBETWEEN(1,ROWS($I$19:$L$19)),1)</f>
@@ -1169,7 +1175,7 @@
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1183,19 +1189,19 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B33" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Kårtveit</v>
+        <f t="shared" ref="B3:B6" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
+        <v>Hellesøy</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
+        <f t="shared" ref="C3:C6" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
+        <v>Ytrebygda</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1209,25 +1215,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Tofterøy</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>104</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
@@ -1235,25 +1238,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Solsvik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>Årstad</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>80</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>30</v>
@@ -1261,307 +1261,37 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Hjelteryggen</v>
+        <v>Træsneset</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Bergenhus</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>Ytrebygda</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>42</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Solsvik</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">_xlfn.XLOOKUP(B7,$H$20:$H$42,_xlfn.XLOOKUP(C7,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>78</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="3" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">_xlfn.XLOOKUP(B8,$H$20:$H$42,_xlfn.XLOOKUP(C8,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>54</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Rongøy</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Laksevåg</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="3" cm="1">
-        <f t="array" aca="1" ref="E9" ca="1">_xlfn.XLOOKUP(B9,$H$20:$H$42,_xlfn.XLOOKUP(C9,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>74</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="3" cm="1">
-        <f t="array" aca="1" ref="E10" ca="1">_xlfn.XLOOKUP(B10,$H$20:$H$42,_xlfn.XLOOKUP(C10,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>44</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Solsvik</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="3" cm="1">
-        <f t="array" aca="1" ref="E11" ca="1">_xlfn.XLOOKUP(B11,$H$20:$H$42,_xlfn.XLOOKUP(C11,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>72</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4</v>
-      </c>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Laksevåg</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">_xlfn.XLOOKUP(B12,$H$20:$H$42,_xlfn.XLOOKUP(C12,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>30</v>
-      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="3" cm="1">
-        <f t="array" aca="1" ref="E13" ca="1">_xlfn.XLOOKUP(B13,$H$20:$H$42,_xlfn.XLOOKUP(C13,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kleppestø</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">_xlfn.XLOOKUP(B14,$H$20:$H$42,_xlfn.XLOOKUP(C14,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Hjelteryggen</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">_xlfn.XLOOKUP(B15,$H$20:$H$42,_xlfn.XLOOKUP(C15,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">_xlfn.XLOOKUP(B16,$H$20:$H$42,_xlfn.XLOOKUP(C16,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Skogsvåg</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3" cm="1">
-        <f t="array" aca="1" ref="E17" ca="1">_xlfn.XLOOKUP(B17,$H$20:$H$42,_xlfn.XLOOKUP(C17,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Arefjord</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Laksevåg</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" cm="1">
-        <f t="array" aca="1" ref="E18" ca="1">_xlfn.XLOOKUP(B18,$H$20:$H$42,_xlfn.XLOOKUP(C18,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Arefjord</v>
-      </c>
-      <c r="C19" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3" cm="1">
-        <f t="array" aca="1" ref="E19" ca="1">_xlfn.XLOOKUP(B19,$H$20:$H$42,_xlfn.XLOOKUP(C19,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>46</v>
-      </c>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="8:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H19" s="12"/>
       <c r="I19" s="13" t="s">
         <v>28</v>
@@ -1576,25 +1306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Landro</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="3" cm="1">
-        <f t="array" aca="1" ref="E20" ca="1">_xlfn.XLOOKUP(B20,$H$20:$H$42,_xlfn.XLOOKUP(C20,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>74</v>
-      </c>
+    <row r="20" spans="8:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H20" s="58" t="s">
         <v>25</v>
       </c>
@@ -1611,25 +1323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Ebbesvika</v>
-      </c>
-      <c r="C21" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3" cm="1">
-        <f t="array" aca="1" ref="E21" ca="1">_xlfn.XLOOKUP(B21,$H$20:$H$42,_xlfn.XLOOKUP(C21,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>48</v>
-      </c>
+    <row r="21" spans="8:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H21" s="58" t="s">
         <v>27</v>
       </c>
@@ -1646,25 +1340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Hjelteryggen</v>
-      </c>
-      <c r="C22" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="3" cm="1">
-        <f t="array" aca="1" ref="E22" ca="1">_xlfn.XLOOKUP(B22,$H$20:$H$42,_xlfn.XLOOKUP(C22,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>36</v>
-      </c>
+    <row r="22" spans="8:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H22" s="58" t="s">
         <v>42</v>
       </c>
@@ -1682,25 +1358,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Ebbesvika</v>
-      </c>
-      <c r="C23" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="3" cm="1">
-        <f t="array" aca="1" ref="E23" ca="1">_xlfn.XLOOKUP(B23,$H$20:$H$42,_xlfn.XLOOKUP(C23,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>56</v>
-      </c>
+    <row r="23" spans="8:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H23" s="58" t="s">
         <v>44</v>
       </c>
@@ -1718,25 +1376,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
-      </c>
-      <c r="C24" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Laksevåg</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="3" cm="1">
-        <f t="array" aca="1" ref="E24" ca="1">_xlfn.XLOOKUP(B24,$H$20:$H$42,_xlfn.XLOOKUP(C24,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>34</v>
-      </c>
+    <row r="24" spans="8:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H24" s="58" t="s">
         <v>38</v>
       </c>
@@ -1744,38 +1384,20 @@
         <v>20</v>
       </c>
       <c r="J24" s="16">
-        <f t="shared" ref="J24:J42" si="1">I24+7</f>
+        <f t="shared" ref="J24:J42" si="2">I24+7</f>
         <v>27</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" ref="K24:K42" si="2">I24+4</f>
+        <f t="shared" ref="K24:K42" si="3">I24+4</f>
         <v>24</v>
       </c>
       <c r="L24" s="24">
-        <f t="shared" ref="L24:L42" si="3">I24+8</f>
+        <f t="shared" ref="L24:L42" si="4">I24+8</f>
         <v>28</v>
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
-      </c>
-      <c r="C25" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="3" cm="1">
-        <f t="array" aca="1" ref="E25" ca="1">_xlfn.XLOOKUP(B25,$H$20:$H$42,_xlfn.XLOOKUP(C25,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>52</v>
-      </c>
+    <row r="25" spans="8:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H25" s="58" t="s">
         <v>39</v>
       </c>
@@ -1783,568 +1405,360 @@
         <v>17</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K25" s="15">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="H26" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="34">
+        <v>15</v>
+      </c>
+      <c r="J26" s="35">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="K26" s="19">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L26" s="21">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="H27" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="59">
+        <v>20</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="K27" s="23">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="L27" s="24">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="H28" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="34">
+        <v>15</v>
+      </c>
+      <c r="J28" s="35">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="K28" s="19">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L28" s="21">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="H29" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="15">
+        <v>21</v>
+      </c>
+      <c r="J29" s="24">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="K29" s="17">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="H30" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="18">
+        <v>29</v>
+      </c>
+      <c r="J30" s="36">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="K30" s="37">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="L30" s="38">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="H31" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="39">
+        <v>11</v>
+      </c>
+      <c r="J31" s="40">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K31" s="34">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L31" s="19">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="H32" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="45">
+        <v>14</v>
+      </c>
+      <c r="J32" s="15">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="L25" s="17">
+      <c r="K32" s="40">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Skogsvåg</v>
-      </c>
-      <c r="C26" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="35">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H33" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="37">
+        <v>33</v>
+      </c>
+      <c r="J33" s="46">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K33" s="38">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="L33" s="47">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H34" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="33">
         <v>17</v>
       </c>
-      <c r="E26" s="3" cm="1">
-        <f t="array" aca="1" ref="E26" ca="1">_xlfn.XLOOKUP(B26,$H$20:$H$42,_xlfn.XLOOKUP(C26,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>74</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="34">
-        <v>15</v>
-      </c>
-      <c r="J26" s="35">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="K26" s="19">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="L26" s="21">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
-      </c>
-      <c r="C27" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="3" cm="1">
-        <f t="array" aca="1" ref="E27" ca="1">_xlfn.XLOOKUP(B27,$H$20:$H$42,_xlfn.XLOOKUP(C27,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>68</v>
-      </c>
-      <c r="H27" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="59">
-        <v>20</v>
-      </c>
-      <c r="J27" s="16">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="K27" s="23">
+      <c r="J34" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="L27" s="24">
+      <c r="K34" s="15">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="17">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H35" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="48">
+        <v>32</v>
+      </c>
+      <c r="J35" s="49">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="K35" s="36">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="L35" s="46">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H36" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="38">
+        <v>37</v>
+      </c>
+      <c r="J36" s="50">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="K36" s="47">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="L36" s="51">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H37" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="41">
+        <v>30</v>
+      </c>
+      <c r="J37" s="42">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="K37" s="43">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="L37" s="44">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H38" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="46">
+        <v>40</v>
+      </c>
+      <c r="J38" s="27">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="K38" s="50">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="L38" s="52">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H39" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="36">
+        <v>36</v>
+      </c>
+      <c r="J39" s="25">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="K39" s="46">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="L39" s="50">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H40" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="50">
+        <v>44</v>
+      </c>
+      <c r="J40" s="54">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="K40" s="52">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="L40" s="28">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H41" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="34">
+        <v>15</v>
+      </c>
+      <c r="J41" s="35">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="K41" s="19">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="L41" s="21">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="8:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="H42" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="59">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Blomøy</v>
-      </c>
-      <c r="C28" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="3" cm="1">
-        <f t="array" aca="1" ref="E28" ca="1">_xlfn.XLOOKUP(B28,$H$20:$H$42,_xlfn.XLOOKUP(C28,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>94</v>
-      </c>
-      <c r="H28" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="34">
-        <v>15</v>
-      </c>
-      <c r="J28" s="35">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="K28" s="19">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="L28" s="21">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
-      </c>
-      <c r="C29" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="3" cm="1">
-        <f t="array" aca="1" ref="E29" ca="1">_xlfn.XLOOKUP(B29,$H$20:$H$42,_xlfn.XLOOKUP(C29,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>54</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="15">
-        <v>21</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="K29" s="17">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L29" s="18">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Hammersland</v>
-      </c>
-      <c r="C30" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="3" cm="1">
-        <f t="array" aca="1" ref="E30" ca="1">_xlfn.XLOOKUP(B30,$H$20:$H$42,_xlfn.XLOOKUP(C30,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>76</v>
-      </c>
-      <c r="H30" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="18">
-        <v>29</v>
-      </c>
-      <c r="J30" s="36">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="K30" s="37">
+      <c r="J42" s="16">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="L30" s="38">
+      <c r="K42" s="23">
         <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
-      </c>
-      <c r="C31" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="3" cm="1">
-        <f t="array" aca="1" ref="E31" ca="1">_xlfn.XLOOKUP(B31,$H$20:$H$42,_xlfn.XLOOKUP(C31,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>44</v>
-      </c>
-      <c r="H31" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="39">
-        <v>11</v>
-      </c>
-      <c r="J31" s="40">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K31" s="34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="L31" s="19">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Rongøy</v>
-      </c>
-      <c r="C32" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="3" cm="1">
-        <f t="array" aca="1" ref="E32" ca="1">_xlfn.XLOOKUP(B32,$H$20:$H$42,_xlfn.XLOOKUP(C32,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>88</v>
-      </c>
-      <c r="H32" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="45">
-        <v>14</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="K32" s="40">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="L32" s="35">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
-      </c>
-      <c r="C33" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="3" cm="1">
-        <f t="array" aca="1" ref="E33" ca="1">_xlfn.XLOOKUP(B33,$H$20:$H$42,_xlfn.XLOOKUP(C33,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>68</v>
-      </c>
-      <c r="H33" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="37">
-        <v>33</v>
-      </c>
-      <c r="J33" s="46">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="K33" s="38">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="L33" s="47">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="3" t="str">
-        <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Rongøy</v>
-      </c>
-      <c r="C34" s="3" t="str">
-        <f ca="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="3" cm="1">
-        <f t="array" aca="1" ref="E34" ca="1">_xlfn.XLOOKUP(B34,$H$20:$H$42,_xlfn.XLOOKUP(C34,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>82</v>
-      </c>
-      <c r="H34" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="I34" s="33">
-        <v>17</v>
-      </c>
-      <c r="J34" s="23">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="L34" s="17">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="H35" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" s="48">
-        <v>32</v>
-      </c>
-      <c r="J35" s="49">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="K35" s="36">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="L35" s="46">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="H36" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="38">
-        <v>37</v>
-      </c>
-      <c r="J36" s="50">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K36" s="47">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="L36" s="51">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="H37" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="41">
         <v>30</v>
       </c>
-      <c r="J37" s="42">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="K37" s="43">
-        <f t="shared" si="2"/>
+      <c r="L42" s="24">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="L37" s="44">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="H38" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="46">
-        <v>40</v>
-      </c>
-      <c r="J38" s="27">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="K38" s="50">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="L38" s="52">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="H39" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="I39" s="36">
-        <v>36</v>
-      </c>
-      <c r="J39" s="25">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="K39" s="46">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="L39" s="50">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="H40" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="I40" s="50">
-        <v>44</v>
-      </c>
-      <c r="J40" s="54">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="K40" s="52">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="L40" s="28">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="H41" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="34">
-        <v>15</v>
-      </c>
-      <c r="J41" s="35">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="K41" s="19">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="L41" s="21">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="H42" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="59">
-        <v>26</v>
-      </c>
-      <c r="J42" s="16">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="K42" s="23">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L42" s="24">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-    </row>
-    <row r="932" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B932" s="11"/>
+    </row>
+    <row r="895" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B895" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3465,50 +2879,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -3539,23 +2953,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3582,7 +2996,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3615,50 +3029,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3688,50 +3102,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3761,50 +3175,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3834,50 +3248,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3898,50 +3312,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3962,50 +3376,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -4023,23 +3437,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4066,7 +3480,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -4084,23 +3498,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4127,7 +3541,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -4146,50 +3560,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -4210,23 +3624,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4253,7 +3667,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4262,50 +3676,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4314,50 +3728,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -4386,30 +3800,30 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4418,50 +3832,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4470,43 +3884,43 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
@@ -4522,50 +3936,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4587,50 +4001,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4654,50 +4068,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4721,50 +4135,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4794,23 +4208,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4837,7 +4251,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4867,50 +4281,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4941,50 +4355,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -5011,50 +4425,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -5151,50 +4565,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -5221,50 +4635,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -5291,50 +4705,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -5361,23 +4775,23 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5404,7 +4818,7 @@
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -6411,50 +5825,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6492,30 +5906,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6533,23 +5947,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6576,7 +5990,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6595,50 +6009,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6679,30 +6093,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6711,50 +6125,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6763,23 +6177,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6806,7 +6220,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6815,50 +6229,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6867,50 +6281,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6919,50 +6333,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6971,50 +6385,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -7036,50 +6450,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -7103,50 +6517,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -7170,50 +6584,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -7243,23 +6657,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -7316,50 +6730,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -7390,23 +6804,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -7433,7 +6847,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -7460,50 +6874,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -7530,50 +6944,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -8563,50 +7977,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8624,50 +8038,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8685,50 +8099,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8766,30 +8180,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8807,50 +8221,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8869,50 +8283,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8953,30 +8367,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8985,50 +8399,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -9037,50 +8451,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -9141,50 +8555,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -9193,50 +8607,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -9245,50 +8659,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -9310,50 +8724,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -9377,50 +8791,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -9444,23 +8858,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9487,7 +8901,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -9517,50 +8931,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9590,50 +9004,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9664,23 +9078,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9707,7 +9121,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9734,23 +9148,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9777,7 +9191,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10815,30 +10229,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10856,50 +10270,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10917,50 +10331,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10978,50 +10392,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -11039,23 +10453,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -11082,7 +10496,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -11101,23 +10515,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -11144,7 +10558,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -11165,23 +10579,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -11208,7 +10622,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11217,50 +10631,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -11269,23 +10683,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -11312,7 +10726,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -11373,50 +10787,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -11425,50 +10839,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -11477,50 +10891,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12733,50 +12147,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12794,50 +12208,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12855,50 +12269,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12916,50 +12330,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12977,23 +12391,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -13020,7 +12434,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -13039,50 +12453,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -13103,50 +12517,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13155,50 +12569,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -13207,43 +12621,43 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
@@ -13259,50 +12673,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -14403,50 +13817,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -14473,50 +13887,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -14543,50 +13957,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14604,50 +14018,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14665,50 +14079,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14726,50 +14140,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14787,23 +14201,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14830,7 +14244,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14849,50 +14263,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14913,50 +14327,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16006,50 +15420,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -16076,23 +15490,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -16119,7 +15533,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -16146,23 +15560,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -16189,7 +15603,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -16216,23 +15630,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -16259,7 +15673,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -16277,50 +15691,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -16338,23 +15752,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -16381,7 +15795,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -16399,50 +15813,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -16460,23 +15874,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -16503,7 +15917,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17588,50 +17002,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17658,50 +17072,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17728,23 +17142,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -17771,7 +17185,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AE42B1-BAC4-4CAB-B9F0-306D11524869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F06B6-EBFE-423A-9E59-53EA75889B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="2160" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2160" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Blomøy</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">INDEX($I$19:$L$19,RANDBETWEEN(1,ROWS($I$19:$L$19)),1)</f>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1190,18 +1190,18 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B6" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Hellesøy</v>
+        <v>Ebbesvik</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C6" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1219,18 +1219,18 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Skogsvåg</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>30</v>
@@ -1265,11 +1265,11 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Træsneset</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -2899,30 +2899,30 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2953,50 +2953,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3029,50 +3029,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3102,50 +3102,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3175,23 +3175,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3248,50 +3248,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3312,50 +3312,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3376,50 +3376,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3437,23 +3437,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3518,30 +3518,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3560,50 +3560,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3624,43 +3624,43 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
@@ -3676,50 +3676,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3728,50 +3728,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3780,50 +3780,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3832,50 +3832,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3884,50 +3884,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3936,50 +3936,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4001,50 +4001,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4068,50 +4068,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4155,30 +4155,30 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4208,50 +4208,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4281,50 +4281,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4355,50 +4355,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4425,50 +4425,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4495,50 +4495,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4565,50 +4565,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4635,50 +4635,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4705,50 +4705,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4775,23 +4775,23 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5845,30 +5845,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5947,50 +5947,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6009,50 +6009,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6073,50 +6073,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6145,30 +6145,30 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6177,50 +6177,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6229,50 +6229,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6281,50 +6281,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6333,23 +6333,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6385,50 +6385,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6450,50 +6450,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6517,50 +6517,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6584,50 +6584,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6657,50 +6657,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6730,23 +6730,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6804,23 +6804,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6874,50 +6874,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6944,23 +6944,23 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -7977,23 +7977,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8038,50 +8038,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8099,50 +8099,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8160,23 +8160,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8221,23 +8221,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8283,43 +8283,43 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
@@ -8347,50 +8347,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8399,50 +8399,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8451,50 +8451,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8503,23 +8503,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8575,30 +8575,30 @@
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8607,50 +8607,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8724,50 +8724,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8791,50 +8791,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8858,23 +8858,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8931,50 +8931,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9004,50 +9004,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9078,50 +9078,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9148,50 +9148,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10209,23 +10209,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10270,50 +10270,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10331,23 +10331,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10392,23 +10392,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10453,50 +10453,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10515,43 +10515,43 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
@@ -10579,50 +10579,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10631,50 +10631,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10683,50 +10683,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10735,50 +10735,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10787,50 +10787,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10839,50 +10839,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10891,23 +10891,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12147,50 +12147,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12208,43 +12208,43 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
@@ -12269,50 +12269,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12330,50 +12330,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12391,50 +12391,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12473,30 +12473,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12517,50 +12517,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12569,50 +12569,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12621,50 +12621,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12673,50 +12673,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13817,50 +13817,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13887,50 +13887,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13957,23 +13957,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14018,43 +14018,43 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
@@ -14099,30 +14099,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14140,23 +14140,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14183,7 +14183,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14283,30 +14283,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14327,23 +14327,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14370,7 +14370,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15440,30 +15440,30 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15560,50 +15560,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15630,50 +15630,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15691,50 +15691,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15752,50 +15752,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15813,50 +15813,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15874,50 +15874,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17002,50 +17002,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17072,50 +17072,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17142,50 +17142,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F06B6-EBFE-423A-9E59-53EA75889B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259519C1-8CCE-4C10-BAF4-50E7C8E723F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2160" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:M895"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Brattholmen</v>
+        <v>Træsneset</v>
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">INDEX($I$19:$L$19,RANDBETWEEN(1,ROWS($I$19:$L$19)),1)</f>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1190,18 +1190,18 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B6" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Ebbesvik</v>
+        <v>Kleppestø</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C6" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Træsneset</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
@@ -1242,18 +1242,18 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>30</v>
@@ -1265,18 +1265,18 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Skogsvåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
@@ -2879,50 +2879,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2953,23 +2953,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3029,50 +3029,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3102,50 +3102,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3175,50 +3175,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3268,30 +3268,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3312,50 +3312,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3376,43 +3376,43 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
@@ -3437,23 +3437,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3498,50 +3498,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3560,50 +3560,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3624,23 +3624,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,50 +3676,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3728,50 +3728,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3780,50 +3780,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3832,50 +3832,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3884,50 +3884,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4001,50 +4001,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4068,23 +4068,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4155,30 +4155,30 @@
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4208,50 +4208,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4281,50 +4281,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4355,50 +4355,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4445,30 +4445,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4515,30 +4515,30 @@
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4565,50 +4565,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4635,23 +4635,23 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4705,23 +4705,23 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -5825,50 +5825,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5886,50 +5886,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5947,50 +5947,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6009,50 +6009,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6073,43 +6073,43 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
@@ -6125,50 +6125,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6197,30 +6197,30 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6229,50 +6229,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6281,50 +6281,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6333,50 +6333,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6405,30 +6405,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6450,50 +6450,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6517,50 +6517,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6584,23 +6584,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6657,50 +6657,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6730,50 +6730,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6804,50 +6804,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6874,50 +6874,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6964,30 +6964,30 @@
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -7977,50 +7977,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8058,30 +8058,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8099,23 +8099,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8160,50 +8160,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8221,23 +8221,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8264,7 +8264,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8283,23 +8283,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8347,50 +8347,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8399,50 +8399,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8451,50 +8451,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8503,50 +8503,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8555,50 +8555,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8607,23 +8607,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8659,50 +8659,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8724,50 +8724,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8791,23 +8791,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8834,7 +8834,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8858,50 +8858,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8931,50 +8931,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9004,23 +9004,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9078,50 +9078,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9148,50 +9148,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10209,23 +10209,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10270,23 +10270,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10331,50 +10331,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10392,50 +10392,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10453,23 +10453,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10496,7 +10496,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10535,30 +10535,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10579,50 +10579,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10631,50 +10631,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10703,30 +10703,30 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10735,50 +10735,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10787,23 +10787,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10830,7 +10830,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10839,23 +10839,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10891,50 +10891,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12147,50 +12147,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12208,50 +12208,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12269,23 +12269,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12330,50 +12330,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12391,50 +12391,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12453,50 +12453,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12517,23 +12517,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12569,50 +12569,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12621,50 +12621,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12673,50 +12673,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13817,50 +13817,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13957,50 +13957,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14018,50 +14018,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14079,23 +14079,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14122,7 +14122,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14140,50 +14140,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14201,50 +14201,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14283,30 +14283,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14327,50 +14327,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15440,30 +15440,30 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15490,43 +15490,43 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
@@ -15580,30 +15580,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15630,50 +15630,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15691,50 +15691,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15752,50 +15752,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15833,30 +15833,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15874,50 +15874,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17002,50 +17002,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17072,23 +17072,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -17115,7 +17115,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17142,50 +17142,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259519C1-8CCE-4C10-BAF4-50E7C8E723F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B083F4-1B77-40F1-9EB9-B15CDCA79574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2160" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:M895"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Træsneset</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">INDEX($I$19:$L$19,RANDBETWEEN(1,ROWS($I$19:$L$19)),1)</f>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1190,18 +1190,18 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B6" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Kleppestø</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C6" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1219,18 +1219,18 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Træsneset</v>
+        <v>Blomøy</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
@@ -1242,18 +1242,18 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Tofterøy</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>30</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Arefjord</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E6" s="3" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
@@ -2879,23 +2879,23 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2953,23 +2953,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3029,50 +3029,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3102,50 +3102,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3175,50 +3175,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3248,50 +3248,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3312,50 +3312,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3437,50 +3437,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3498,50 +3498,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3560,23 +3560,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3624,50 +3624,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,50 +3676,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3728,50 +3728,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3780,50 +3780,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3832,50 +3832,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3884,23 +3884,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3936,50 +3936,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4001,50 +4001,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4135,23 +4135,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4208,50 +4208,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4281,23 +4281,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4355,50 +4355,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4425,23 +4425,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4495,50 +4495,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4565,50 +4565,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4635,50 +4635,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4705,23 +4705,23 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4775,50 +4775,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5825,50 +5825,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5886,50 +5886,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5947,50 +5947,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6009,50 +6009,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6073,50 +6073,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6125,50 +6125,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6177,50 +6177,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6229,23 +6229,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6281,50 +6281,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6333,23 +6333,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6385,50 +6385,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6470,30 +6470,30 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6517,50 +6517,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6584,23 +6584,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6657,50 +6657,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6730,23 +6730,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6804,50 +6804,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6944,50 +6944,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -7977,50 +7977,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8038,50 +8038,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8119,30 +8119,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8160,50 +8160,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8221,50 +8221,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8283,23 +8283,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8347,50 +8347,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8399,50 +8399,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8451,50 +8451,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8503,50 +8503,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8555,50 +8555,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8607,50 +8607,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8659,50 +8659,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8724,43 +8724,43 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
@@ -8791,50 +8791,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8858,50 +8858,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8931,50 +8931,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9004,23 +9004,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9078,23 +9078,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9148,50 +9148,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10209,50 +10209,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10270,50 +10270,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10331,50 +10331,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10392,23 +10392,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10453,50 +10453,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10515,43 +10515,43 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
@@ -10579,23 +10579,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10631,50 +10631,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10683,43 +10683,43 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
@@ -10735,50 +10735,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10787,50 +10787,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10839,23 +10839,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -12147,50 +12147,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12208,50 +12208,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12269,50 +12269,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12330,23 +12330,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12411,30 +12411,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12453,50 +12453,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12517,23 +12517,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12589,30 +12589,30 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12621,23 +12621,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12673,23 +12673,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13817,50 +13817,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13887,23 +13887,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -13930,7 +13930,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13957,50 +13957,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14018,50 +14018,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14079,50 +14079,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14160,30 +14160,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14201,50 +14201,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14263,50 +14263,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14327,50 +14327,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15420,23 +15420,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -15463,7 +15463,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15490,50 +15490,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15560,50 +15560,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15630,50 +15630,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15813,50 +15813,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -17002,50 +17002,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17072,50 +17072,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17142,50 +17142,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B083F4-1B77-40F1-9EB9-B15CDCA79574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9B099C-1487-4B58-B33F-CB58C5234273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2160" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:M895"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">INDEX($I$19:$L$19,RANDBETWEEN(1,ROWS($I$19:$L$19)),1)</f>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1190,18 +1190,18 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B6" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C6" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Blomøy</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
@@ -1242,11 +1242,11 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -1265,18 +1265,18 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Arefjord</v>
+        <v>Solsvik</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
@@ -2879,43 +2879,43 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
@@ -2953,50 +2953,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3029,23 +3029,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3102,23 +3102,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3175,50 +3175,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3248,50 +3248,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3312,23 +3312,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3376,23 +3376,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3437,50 +3437,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3498,50 +3498,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3560,50 +3560,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3644,30 +3644,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,50 +3676,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3728,50 +3728,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3780,50 +3780,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3832,23 +3832,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3884,50 +3884,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4001,50 +4001,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4068,50 +4068,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4135,23 +4135,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4228,30 +4228,30 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4281,50 +4281,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4355,50 +4355,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4425,50 +4425,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4515,30 +4515,30 @@
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4565,50 +4565,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4705,23 +4705,23 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4775,50 +4775,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5825,23 +5825,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5886,50 +5886,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5947,50 +5947,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6009,50 +6009,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6073,50 +6073,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6125,50 +6125,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6177,50 +6177,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6229,50 +6229,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6281,50 +6281,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6333,50 +6333,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6385,50 +6385,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6450,50 +6450,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6517,50 +6517,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6584,23 +6584,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6657,50 +6657,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6730,23 +6730,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6804,50 +6804,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6874,50 +6874,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6944,23 +6944,23 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -7977,23 +7977,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8038,50 +8038,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8119,30 +8119,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8160,50 +8160,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8241,30 +8241,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8283,50 +8283,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8347,23 +8347,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8399,50 +8399,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8451,50 +8451,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8503,23 +8503,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8555,23 +8555,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8607,50 +8607,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8659,23 +8659,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8702,7 +8702,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8744,30 +8744,30 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8791,50 +8791,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8858,50 +8858,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8931,50 +8931,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9004,50 +9004,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9098,30 +9098,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9168,30 +9168,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10270,50 +10270,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10331,50 +10331,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10392,50 +10392,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10453,23 +10453,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10496,7 +10496,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10515,50 +10515,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10579,23 +10579,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10631,50 +10631,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10683,50 +10683,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10735,50 +10735,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10787,50 +10787,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10839,50 +10839,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10891,23 +10891,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10934,7 +10934,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12147,50 +12147,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12208,23 +12208,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12269,50 +12269,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12350,30 +12350,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12391,50 +12391,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12453,50 +12453,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12517,23 +12517,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12569,43 +12569,43 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
@@ -12621,50 +12621,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12673,23 +12673,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13817,43 +13817,43 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
@@ -13887,23 +13887,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -13930,7 +13930,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13957,23 +13957,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14018,50 +14018,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14079,50 +14079,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14140,50 +14140,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14201,23 +14201,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14283,30 +14283,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -15420,23 +15420,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -15463,7 +15463,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15490,50 +15490,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15560,23 +15560,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15630,50 +15630,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15691,50 +15691,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15752,23 +15752,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15813,50 +15813,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15874,50 +15874,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17002,50 +17002,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17072,50 +17072,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17142,50 +17142,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9B099C-1487-4B58-B33F-CB58C5234273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82279D5-9831-431B-A2B6-30B6220507C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2160" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:M895"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Bildøyna</v>
+        <v>Rongøy</v>
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">INDEX($I$19:$L$19,RANDBETWEEN(1,ROWS($I$19:$L$19)),1)</f>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1190,18 +1190,18 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B6" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Bildøyna</v>
+        <v>Blomøy</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C6" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Hellesøy</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
@@ -1241,19 +1241,19 @@
         <v>26</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Hjelteryggen</v>
+        <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
+        <v>Ebbesvik</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>30</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Solsvik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E6" s="3" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
@@ -2879,50 +2879,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2953,50 +2953,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3029,50 +3029,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3102,50 +3102,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3175,23 +3175,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3268,30 +3268,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3312,23 +3312,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3376,23 +3376,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3437,23 +3437,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3498,50 +3498,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3560,50 +3560,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3624,50 +3624,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,50 +3676,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3728,50 +3728,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3780,50 +3780,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3832,50 +3832,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3884,50 +3884,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4001,50 +4001,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4068,23 +4068,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4135,50 +4135,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4208,50 +4208,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4281,50 +4281,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4375,30 +4375,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4425,50 +4425,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4495,50 +4495,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4565,50 +4565,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4655,30 +4655,30 @@
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4705,50 +4705,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4775,50 +4775,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5825,50 +5825,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5947,50 +5947,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6073,50 +6073,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6125,50 +6125,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6177,23 +6177,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6229,50 +6229,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6281,50 +6281,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6333,50 +6333,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6385,50 +6385,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6450,50 +6450,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6517,23 +6517,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6584,23 +6584,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6657,23 +6657,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6730,50 +6730,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6804,50 +6804,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6894,30 +6894,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6944,50 +6944,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -7977,23 +7977,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8038,50 +8038,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8099,50 +8099,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8221,50 +8221,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8283,50 +8283,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8347,50 +8347,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8399,50 +8399,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8451,50 +8451,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8503,50 +8503,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8555,50 +8555,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8607,23 +8607,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8659,50 +8659,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8724,23 +8724,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8791,50 +8791,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8858,50 +8858,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8931,50 +8931,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9004,23 +9004,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9098,30 +9098,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9148,50 +9148,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10209,50 +10209,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10270,50 +10270,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10331,50 +10331,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10392,23 +10392,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10453,50 +10453,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10535,30 +10535,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10599,30 +10599,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10631,23 +10631,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10683,50 +10683,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10735,50 +10735,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10807,30 +10807,30 @@
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10839,50 +10839,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10891,50 +10891,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12147,50 +12147,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12208,50 +12208,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12269,50 +12269,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12330,50 +12330,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12411,30 +12411,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12453,50 +12453,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12517,43 +12517,43 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
@@ -12569,50 +12569,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12621,23 +12621,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12673,50 +12673,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13817,50 +13817,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13887,50 +13887,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13957,50 +13957,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14038,30 +14038,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14079,50 +14079,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14140,50 +14140,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14221,30 +14221,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14263,50 +14263,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14327,23 +14327,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14370,7 +14370,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15420,50 +15420,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15490,23 +15490,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15580,30 +15580,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15630,23 +15630,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15691,50 +15691,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15752,23 +15752,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15813,50 +15813,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15874,50 +15874,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17002,50 +17002,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17072,23 +17072,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -17115,7 +17115,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17142,50 +17142,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82279D5-9831-431B-A2B6-30B6220507C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD35C77-A4E5-41F3-A5E2-6B477B399C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11805" yWindow="810" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B6" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Blomøy</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C6" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1219,18 +1219,18 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
@@ -1242,18 +1242,18 @@
       </c>
       <c r="B5" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Ebbesvik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>30</v>
@@ -1265,18 +1265,18 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
@@ -2879,50 +2879,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2953,50 +2953,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3029,23 +3029,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3102,23 +3102,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3175,50 +3175,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3248,50 +3248,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3312,50 +3312,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3376,23 +3376,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3437,50 +3437,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3518,30 +3518,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3560,23 +3560,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3624,50 +3624,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,23 +3676,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3728,23 +3728,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3780,50 +3780,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3832,50 +3832,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3884,50 +3884,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3936,23 +3936,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4021,30 +4021,30 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4068,50 +4068,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4135,50 +4135,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4228,30 +4228,30 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4281,50 +4281,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4355,43 +4355,43 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
@@ -4425,50 +4425,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4495,50 +4495,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4565,23 +4565,23 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4635,50 +4635,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4705,23 +4705,23 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -5825,50 +5825,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5886,50 +5886,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5947,50 +5947,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6009,23 +6009,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6093,30 +6093,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6125,23 +6125,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6177,50 +6177,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6229,50 +6229,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6385,50 +6385,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6450,50 +6450,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6517,50 +6517,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6584,43 +6584,43 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
@@ -6657,50 +6657,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6730,50 +6730,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6804,50 +6804,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6874,50 +6874,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6944,50 +6944,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -7977,50 +7977,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8038,23 +8038,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8160,50 +8160,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8221,50 +8221,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8283,23 +8283,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8347,50 +8347,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8399,23 +8399,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8442,7 +8442,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8451,50 +8451,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8503,50 +8503,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8555,50 +8555,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8607,50 +8607,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8659,50 +8659,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8724,50 +8724,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8791,50 +8791,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8858,50 +8858,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8931,50 +8931,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9004,50 +9004,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9078,23 +9078,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9148,50 +9148,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10209,23 +10209,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10270,23 +10270,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10313,7 +10313,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10331,50 +10331,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10412,30 +10412,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10453,50 +10453,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10515,23 +10515,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10579,50 +10579,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10631,50 +10631,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10703,30 +10703,30 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10735,50 +10735,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10787,50 +10787,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10839,50 +10839,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10891,50 +10891,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12147,50 +12147,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12208,50 +12208,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12269,50 +12269,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12330,23 +12330,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12373,7 +12373,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12411,30 +12411,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12453,50 +12453,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12537,30 +12537,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12569,50 +12569,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12641,30 +12641,30 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12673,50 +12673,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13817,50 +13817,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13887,23 +13887,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -13930,7 +13930,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13957,50 +13957,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14018,50 +14018,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14079,50 +14079,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14140,43 +14140,43 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
@@ -14201,50 +14201,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14263,23 +14263,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14306,7 +14306,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14327,50 +14327,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15420,50 +15420,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15490,43 +15490,43 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
@@ -15560,50 +15560,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15630,50 +15630,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15691,23 +15691,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15734,7 +15734,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15752,50 +15752,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15813,23 +15813,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15856,7 +15856,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15874,50 +15874,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17002,50 +17002,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17072,50 +17072,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17142,50 +17142,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD35C77-A4E5-41F3-A5E2-6B477B399C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB950D46-3F38-4F41-91A8-5EF186694397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11805" yWindow="810" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="2280" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Reisetider" sheetId="3" r:id="rId11"/>
     <sheet name="Koordinater" sheetId="4" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:M895"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Rongøy</v>
+        <v>Spjeld</v>
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">INDEX($I$19:$L$19,RANDBETWEEN(1,ROWS($I$19:$L$19)),1)</f>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1190,18 +1190,18 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B6" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Kolltveit</v>
+        <v>Rongøy</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C6" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1219,18 +1219,18 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B5" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>30</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Hjelteryggen</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E6" s="3" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
@@ -2899,30 +2899,30 @@
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2953,50 +2953,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3029,23 +3029,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3102,50 +3102,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3175,23 +3175,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3248,50 +3248,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3332,30 +3332,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3376,50 +3376,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3437,50 +3437,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3498,50 +3498,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3560,43 +3560,43 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
@@ -3624,50 +3624,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,50 +3676,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3728,50 +3728,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3832,50 +3832,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3884,23 +3884,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3936,43 +3936,43 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
@@ -4001,50 +4001,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4068,23 +4068,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4135,50 +4135,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4208,50 +4208,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4281,50 +4281,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4355,43 +4355,43 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
@@ -4425,50 +4425,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4495,50 +4495,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4635,50 +4635,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4725,30 +4725,30 @@
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4775,50 +4775,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5825,50 +5825,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5886,50 +5886,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5947,50 +5947,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6009,50 +6009,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6073,50 +6073,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6125,50 +6125,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6177,23 +6177,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6229,50 +6229,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6281,43 +6281,43 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
@@ -6333,50 +6333,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6385,23 +6385,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6450,50 +6450,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6517,50 +6517,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6584,50 +6584,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6657,50 +6657,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6730,23 +6730,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6804,50 +6804,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6874,50 +6874,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6944,23 +6944,23 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -7977,50 +7977,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8038,50 +8038,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8099,50 +8099,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8221,50 +8221,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8283,23 +8283,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8347,50 +8347,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8399,50 +8399,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8451,50 +8451,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8503,50 +8503,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8555,50 +8555,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8607,50 +8607,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8659,50 +8659,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8724,50 +8724,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8791,50 +8791,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8858,50 +8858,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8931,50 +8931,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9004,50 +9004,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9078,50 +9078,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9148,50 +9148,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10209,50 +10209,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10270,50 +10270,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10331,23 +10331,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10374,7 +10374,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10392,50 +10392,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10453,50 +10453,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10515,50 +10515,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10579,50 +10579,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10631,50 +10631,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10683,23 +10683,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10726,7 +10726,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10735,23 +10735,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10778,7 +10778,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10787,50 +10787,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10839,23 +10839,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10911,30 +10911,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12147,50 +12147,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12208,50 +12208,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12269,50 +12269,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12350,30 +12350,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12391,23 +12391,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12434,7 +12434,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12453,50 +12453,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12517,50 +12517,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12569,50 +12569,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12621,23 +12621,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12673,50 +12673,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13817,50 +13817,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13887,23 +13887,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -13930,7 +13930,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13957,50 +13957,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14018,50 +14018,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14079,23 +14079,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14122,7 +14122,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14140,50 +14140,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14263,50 +14263,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14327,50 +14327,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15420,23 +15420,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -15463,7 +15463,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15490,50 +15490,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15560,43 +15560,43 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
@@ -15630,50 +15630,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15691,23 +15691,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15734,7 +15734,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15752,50 +15752,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15813,50 +15813,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15874,50 +15874,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17002,50 +17002,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17072,50 +17072,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17142,23 +17142,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -17185,7 +17185,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB950D46-3F38-4F41-91A8-5EF186694397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78533F00-527C-4561-81F4-E4CEB4D2F65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="2280" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="96">
   <si>
     <t>Rider</t>
   </si>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:M895"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">INDEX($I$19:$L$19,RANDBETWEEN(1,ROWS($I$19:$L$19)),1)</f>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1189,11 +1189,11 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B6" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Rongøy</v>
+        <f t="shared" ref="B3:B11" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
+        <v>Straume</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f t="shared" ref="C3:C6" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
+        <f t="shared" ref="C3:C11" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
         <v>Laksevåg</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1215,22 +1215,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Tofterøy</v>
+        <v>Blomøy</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>28</v>
@@ -1238,22 +1241,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Knarrevik</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Rongøy</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Bergenhus</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>36</v>
+        <v>88</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>30</v>
@@ -1261,7 +1267,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1269,21 +1275,130 @@
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Bildøyna</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="3" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">_xlfn.XLOOKUP(B7,$H$20:$H$42,_xlfn.XLOOKUP(C7,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>44</v>
+      </c>
+      <c r="F7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Kårtveit</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="3" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">_xlfn.XLOOKUP(B8,$H$20:$H$42,_xlfn.XLOOKUP(C8,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>52</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Solsvik</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bergenhus</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="3" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">_xlfn.XLOOKUP(B9,$H$20:$H$42,_xlfn.XLOOKUP(C9,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>78</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Straume</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ytrebygda</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">_xlfn.XLOOKUP(B10,$H$20:$H$42,_xlfn.XLOOKUP(C10,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Hammarsland</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Laksevåg</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">_xlfn.XLOOKUP(B11,$H$20:$H$42,_xlfn.XLOOKUP(C11,$I$19:$L$19,$I$20:$L$42))*2</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H12" s="9"/>
@@ -2879,50 +2994,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2973,30 +3088,30 @@
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3029,23 +3144,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3072,7 +3187,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3122,30 +3237,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3175,50 +3290,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3248,50 +3363,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3332,30 +3447,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3376,50 +3491,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3457,30 +3572,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3498,50 +3613,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3560,50 +3675,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3624,23 +3739,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3667,7 +3782,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,50 +3791,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3728,23 +3843,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3771,7 +3886,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3780,23 +3895,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3823,7 +3938,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3832,50 +3947,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3884,50 +3999,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -3936,43 +4051,43 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
@@ -4001,50 +4116,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4068,50 +4183,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4135,50 +4250,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4208,23 +4323,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4251,7 +4366,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4281,50 +4396,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4355,23 +4470,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4398,7 +4513,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4425,50 +4540,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4495,23 +4610,23 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4538,7 +4653,7 @@
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4565,50 +4680,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4635,23 +4750,23 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4678,7 +4793,7 @@
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4705,50 +4820,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4775,50 +4890,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5825,23 +5940,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -5886,50 +6001,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5947,23 +6062,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5990,7 +6105,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6009,50 +6124,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6093,30 +6208,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6125,23 +6240,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6168,7 +6283,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6177,23 +6292,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6220,7 +6335,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6229,50 +6344,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6281,50 +6396,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6333,23 +6448,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6376,7 +6491,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6385,50 +6500,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6450,23 +6565,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6493,7 +6608,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6517,50 +6632,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6584,50 +6699,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6657,50 +6772,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6750,30 +6865,30 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6874,50 +6989,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6944,23 +7059,23 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6987,7 +7102,7 @@
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -7977,50 +8092,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8038,50 +8153,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8099,50 +8214,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8160,50 +8275,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8221,50 +8336,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8283,50 +8398,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8347,23 +8462,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8390,7 +8505,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8399,23 +8514,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8451,50 +8566,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8503,50 +8618,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8555,50 +8670,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8607,50 +8722,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8659,50 +8774,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8724,50 +8839,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8858,23 +8973,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8901,7 +9016,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8931,50 +9046,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9004,23 +9119,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9047,7 +9162,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9078,50 +9193,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9148,23 +9263,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9191,7 +9306,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10209,50 +10324,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10270,50 +10385,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10331,50 +10446,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10412,30 +10527,30 @@
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10453,23 +10568,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10515,50 +10630,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10579,50 +10694,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10631,23 +10746,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10674,7 +10789,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10683,50 +10798,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10735,50 +10850,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10787,50 +10902,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10839,50 +10954,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10891,23 +11006,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10934,7 +11049,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12147,50 +12262,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12208,50 +12323,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12269,50 +12384,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12330,50 +12445,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12391,23 +12506,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12434,7 +12549,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12453,50 +12568,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12517,50 +12632,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12569,23 +12684,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12612,7 +12727,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12621,23 +12736,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12664,7 +12779,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12673,23 +12788,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12716,7 +12831,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13817,23 +13932,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -13860,7 +13975,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13887,50 +14002,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13957,50 +14072,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14018,50 +14133,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14079,50 +14194,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14140,50 +14255,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14201,23 +14316,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14244,7 +14359,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14263,23 +14378,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14306,7 +14421,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14327,50 +14442,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15420,50 +15535,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15490,50 +15605,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15560,23 +15675,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15603,7 +15718,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15630,50 +15745,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15691,23 +15806,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15734,7 +15849,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15752,50 +15867,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15813,50 +15928,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15874,50 +15989,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17002,50 +17117,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17072,50 +17187,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17142,23 +17257,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -17185,7 +17300,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78533F00-527C-4561-81F4-E4CEB4D2F65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4932A9E-00C8-4D9B-84F7-BFDD12CEA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="97">
   <si>
     <t>Rider</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Ebbesvik</t>
+  </si>
+  <si>
+    <t>0800, 0827</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9237F8-759A-1046-9CA0-16FCEE066690}">
-  <dimension ref="A1:M895"/>
+  <dimension ref="A1:M892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1164,18 +1167,18 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Kolltveit</v>
+        <v>Hellesøy</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f ca="1">INDEX($I$19:$L$19,RANDBETWEEN(1,ROWS($I$19:$L$19)),1)</f>
-        <v>Laksevåg</v>
+        <f t="shared" ref="C2:C4" ca="1" si="0">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
+        <v>Bergenhus</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1186,26 +1189,24 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B11" ca="1" si="0">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Straume</v>
+        <f t="shared" ref="B3:B4" ca="1" si="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
+        <v>Kleppestø</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f t="shared" ref="C3:C11" ca="1" si="1">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Laksevåg</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Årstad</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>30</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1215,14 +1216,14 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Foldnes</v>
+      </c>
+      <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Blomøy</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v>Bergenhus</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1230,183 +1231,116 @@
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>100</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="M4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Rongøy</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="3" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">_xlfn.XLOOKUP(B5,$H$20:$H$42,_xlfn.XLOOKUP(C5,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>88</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="M5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">_xlfn.XLOOKUP(B6,$H$20:$H$42,_xlfn.XLOOKUP(C6,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>50</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
-      </c>
-      <c r="C7" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="3" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">_xlfn.XLOOKUP(B7,$H$20:$H$42,_xlfn.XLOOKUP(C7,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>44</v>
-      </c>
-      <c r="F7" s="2">
-        <v>8</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
-      </c>
-      <c r="C8" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="3" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">_xlfn.XLOOKUP(B8,$H$20:$H$42,_xlfn.XLOOKUP(C8,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>52</v>
-      </c>
-      <c r="F8" s="2">
-        <v>9</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Solsvik</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="3" cm="1">
-        <f t="array" aca="1" ref="E9" ca="1">_xlfn.XLOOKUP(B9,$H$20:$H$42,_xlfn.XLOOKUP(C9,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>78</v>
-      </c>
-      <c r="F9" s="2">
-        <v>10</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="3" cm="1">
-        <f t="array" aca="1" ref="E10" ca="1">_xlfn.XLOOKUP(B10,$H$20:$H$42,_xlfn.XLOOKUP(C10,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>38</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Hammarsland</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="3" cm="1">
-        <f t="array" aca="1" ref="E11" ca="1">_xlfn.XLOOKUP(B11,$H$20:$H$42,_xlfn.XLOOKUP(C11,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>60</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H19" s="12"/>
       <c r="I19" s="13" t="s">
         <v>28</v>
@@ -1421,7 +1355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H20" s="58" t="s">
         <v>25</v>
       </c>
@@ -1438,7 +1372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H21" s="58" t="s">
         <v>27</v>
       </c>
@@ -1455,7 +1389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H22" s="58" t="s">
         <v>42</v>
       </c>
@@ -1473,7 +1407,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H23" s="58" t="s">
         <v>44</v>
       </c>
@@ -1491,7 +1425,7 @@
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H24" s="58" t="s">
         <v>38</v>
       </c>
@@ -1512,7 +1446,7 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H25" s="58" t="s">
         <v>39</v>
       </c>
@@ -1532,7 +1466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H26" s="58" t="s">
         <v>47</v>
       </c>
@@ -1552,7 +1486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H27" s="58" t="s">
         <v>95</v>
       </c>
@@ -1572,7 +1506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H28" s="58" t="s">
         <v>34</v>
       </c>
@@ -1592,7 +1526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H29" s="58" t="s">
         <v>37</v>
       </c>
@@ -1612,7 +1546,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H30" s="58" t="s">
         <v>49</v>
       </c>
@@ -1632,7 +1566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H31" s="58" t="s">
         <v>35</v>
       </c>
@@ -1652,7 +1586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="8:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="H32" s="58" t="s">
         <v>51</v>
       </c>
@@ -1872,8 +1806,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="895" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B895" s="11"/>
+    <row r="892" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B892" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2994,50 +2928,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -3068,50 +3002,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3144,50 +3078,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3217,23 +3151,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3260,7 +3194,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3290,50 +3224,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3383,30 +3317,30 @@
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3427,50 +3361,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3511,30 +3445,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3552,23 +3486,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3595,7 +3529,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3613,23 +3547,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3656,7 +3590,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3675,23 +3609,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3718,7 +3652,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3739,50 +3673,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3791,50 +3725,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3843,50 +3777,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3895,50 +3829,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3947,50 +3881,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3999,23 +3933,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4042,7 +3976,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4051,50 +3985,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4136,30 +4070,30 @@
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4183,50 +4117,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -4250,43 +4184,43 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
@@ -4323,23 +4257,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4366,7 +4300,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4396,23 +4330,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4439,7 +4373,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4490,30 +4424,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4540,50 +4474,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4680,50 +4614,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4750,23 +4684,23 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4793,7 +4727,7 @@
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4820,50 +4754,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4890,50 +4824,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5940,23 +5874,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -5983,7 +5917,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -6001,23 +5935,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6044,7 +5978,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6124,50 +6058,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6188,23 +6122,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6231,7 +6165,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6240,50 +6174,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6292,50 +6226,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6344,23 +6278,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6387,7 +6321,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6396,50 +6330,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6448,50 +6382,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6500,50 +6434,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6565,50 +6499,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6699,50 +6633,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6772,50 +6706,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6845,50 +6779,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6919,50 +6853,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6989,50 +6923,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -7059,50 +6993,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -8092,50 +8026,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8153,23 +8087,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8214,50 +8148,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8275,50 +8209,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8336,50 +8270,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8418,30 +8352,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8462,50 +8396,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8514,23 +8448,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8557,7 +8491,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8566,50 +8500,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8618,50 +8552,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8670,43 +8604,43 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
@@ -8722,50 +8656,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8794,30 +8728,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8839,50 +8773,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8906,50 +8840,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8973,50 +8907,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -9066,30 +9000,30 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9119,50 +9053,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -9213,30 +9147,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9263,50 +9197,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10324,50 +10258,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10385,43 +10319,43 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
@@ -10446,50 +10380,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10507,50 +10441,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10568,43 +10502,43 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
@@ -10694,43 +10628,43 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
@@ -10746,50 +10680,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10798,50 +10732,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10850,50 +10784,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10902,50 +10836,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10954,23 +10888,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10997,7 +10931,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -11006,50 +10940,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12262,23 +12196,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -12305,7 +12239,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12343,30 +12277,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12384,50 +12318,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12445,50 +12379,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12506,50 +12440,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12568,50 +12502,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12632,50 +12566,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12684,50 +12618,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12736,23 +12670,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12779,7 +12713,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12788,50 +12722,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13952,30 +13886,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -14002,50 +13936,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -14072,23 +14006,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14115,7 +14049,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14133,50 +14067,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14194,50 +14128,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14255,50 +14189,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14316,50 +14250,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14378,50 +14312,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14442,50 +14376,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15555,30 +15489,30 @@
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15605,23 +15539,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15648,7 +15582,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15695,30 +15629,30 @@
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15745,50 +15679,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -15806,50 +15740,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15887,30 +15821,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15928,23 +15862,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15971,7 +15905,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15989,50 +15923,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -17117,50 +17051,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17207,30 +17141,30 @@
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17257,50 +17191,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/test_instance.xlsx
+++ b/test_instance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\master2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4932A9E-00C8-4D9B-84F7-BFDD12CEA498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA44366B-8093-4F1A-8E40-5CB39A37512A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2280" windowWidth="21600" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:M892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1167,18 +1167,18 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Hellesøy</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C2" s="3" t="str">
         <f t="shared" ref="C2:C4" ca="1" si="0">INDEX($M$3:$M$6,RANDBETWEEN(1,ROWS($M$3:$M$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="3" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">_xlfn.XLOOKUP(B2,$H$20:$H$42,_xlfn.XLOOKUP(C2,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B4" ca="1" si="1">INDEX($H$20:$H$42,RANDBETWEEN(1,ROWS($H$20:$H$42)),1)</f>
-        <v>Kleppestø</v>
+        <v>Blomøy</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">_xlfn.XLOOKUP(B3,$H$20:$H$42,_xlfn.XLOOKUP(C3,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F3" s="2"/>
       <c r="H3" s="9"/>
@@ -1220,18 +1220,18 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="3" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.XLOOKUP(B4,$H$20:$H$42,_xlfn.XLOOKUP(C4,$I$19:$L$19,$I$20:$L$42))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2"/>
       <c r="M4" s="2" t="s">
@@ -2928,50 +2928,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -3002,50 +3002,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -3078,50 +3078,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -3151,50 +3151,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -3224,50 +3224,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -3297,50 +3297,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -3361,50 +3361,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3486,50 +3486,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3547,50 +3547,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -3609,50 +3609,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -3673,50 +3673,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3725,23 +3725,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3777,50 +3777,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -3829,50 +3829,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -3881,50 +3881,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -4005,30 +4005,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -4050,50 +4050,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -4117,43 +4117,43 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
@@ -4184,50 +4184,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -4257,23 +4257,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -4330,50 +4330,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -4404,50 +4404,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -4474,50 +4474,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -4564,30 +4564,30 @@
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -4614,23 +4614,23 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -4684,50 +4684,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -4754,50 +4754,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -4824,50 +4824,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -5874,50 +5874,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5935,50 +5935,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -6016,30 +6016,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -6058,23 +6058,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -6122,23 +6122,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6174,23 +6174,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6226,23 +6226,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -6278,23 +6278,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6330,50 +6330,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -6382,50 +6382,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6434,50 +6434,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6566,50 +6566,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6633,50 +6633,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6706,50 +6706,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6779,50 +6779,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6923,50 +6923,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6993,50 +6993,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -8026,50 +8026,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -8087,50 +8087,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -8148,50 +8148,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -8209,50 +8209,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8270,50 +8270,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8332,50 +8332,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8396,23 +8396,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8448,50 +8448,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8500,23 +8500,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8552,50 +8552,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8604,23 +8604,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8656,50 +8656,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8708,50 +8708,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8773,50 +8773,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8840,50 +8840,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8907,50 +8907,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8980,23 +8980,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -9147,30 +9147,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -9197,50 +9197,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -10258,23 +10258,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10319,50 +10319,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10380,50 +10380,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10441,50 +10441,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10522,30 +10522,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10564,43 +10564,43 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
@@ -10628,50 +10628,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10680,50 +10680,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10732,23 +10732,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10784,50 +10784,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10836,50 +10836,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10888,50 +10888,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10940,50 +10940,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -12196,23 +12196,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12257,23 +12257,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12318,50 +12318,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12379,50 +12379,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12440,23 +12440,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -12483,7 +12483,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12522,30 +12522,30 @@
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12566,50 +12566,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12638,30 +12638,30 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12670,50 +12670,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12722,50 +12722,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -13866,50 +13866,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -13936,50 +13936,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -14006,50 +14006,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14067,50 +14067,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14148,30 +14148,30 @@
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14189,23 +14189,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14250,50 +14250,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14312,50 +14312,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14376,50 +14376,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.264793000000000